--- a/data/0. old data/0. raw/2016/companies/novartis.xlsx
+++ b/data/0. old data/0. raw/2016/companies/novartis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="20" windowWidth="30900" windowHeight="14500"/>
+    <workbookView xWindow="2600" yWindow="2860" windowWidth="30900" windowHeight="14500"/>
   </bookViews>
   <sheets>
     <sheet name="novartis" sheetId="1" r:id="rId1"/>
@@ -15544,8 +15544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M937"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A728" workbookViewId="0">
-      <selection activeCell="A754" sqref="A754"/>
+    <sheetView tabSelected="1" topLeftCell="A748" workbookViewId="0">
+      <selection activeCell="B760" sqref="B760"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -38250,8 +38250,8 @@
       <c r="A759" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="B759" s="3" t="s">
-        <v>49</v>
+      <c r="B759" s="21" t="s">
+        <v>2074</v>
       </c>
       <c r="C759" s="3" t="s">
         <v>22</v>
